--- a/library/Library_J.PLAGGENBERG_09.04.19.xlsx
+++ b/library/Library_J.PLAGGENBERG_09.04.19.xlsx
@@ -76,7 +76,7 @@
     <t xml:space="preserve">GAGTTG</t>
   </si>
   <si>
-    <t xml:space="preserve">E7420</t>
+    <t xml:space="preserve">E7420L</t>
   </si>
   <si>
     <t xml:space="preserve">ACAGATA</t>
@@ -317,7 +317,7 @@
   <dimension ref="A1:Z33"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L2" activeCellId="0" sqref="L2:L33"/>
+      <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2:K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -411,7 +411,8 @@
       <c r="K2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="8" t="b">
+      <c r="L2" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -449,7 +450,8 @@
       <c r="K3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L3" s="8" t="b">
+      <c r="L3" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -487,7 +489,8 @@
       <c r="K4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="8" t="b">
+      <c r="L4" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -525,7 +528,8 @@
       <c r="K5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L5" s="8" t="b">
+      <c r="L5" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -563,7 +567,8 @@
       <c r="K6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L6" s="8" t="b">
+      <c r="L6" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -601,7 +606,8 @@
       <c r="K7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L7" s="8" t="b">
+      <c r="L7" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -639,7 +645,8 @@
       <c r="K8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L8" s="8" t="b">
+      <c r="L8" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -677,7 +684,8 @@
       <c r="K9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L9" s="8" t="b">
+      <c r="L9" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -715,7 +723,8 @@
       <c r="K10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L10" s="8" t="b">
+      <c r="L10" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -753,7 +762,8 @@
       <c r="K11" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L11" s="8" t="b">
+      <c r="L11" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -791,7 +801,8 @@
       <c r="K12" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L12" s="8" t="b">
+      <c r="L12" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -829,7 +840,8 @@
       <c r="K13" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L13" s="8" t="b">
+      <c r="L13" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -867,7 +879,8 @@
       <c r="K14" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L14" s="8" t="b">
+      <c r="L14" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -905,7 +918,8 @@
       <c r="K15" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L15" s="8" t="b">
+      <c r="L15" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -943,7 +957,8 @@
       <c r="K16" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L16" s="8" t="b">
+      <c r="L16" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -981,7 +996,8 @@
       <c r="K17" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L17" s="8" t="b">
+      <c r="L17" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1019,7 +1035,8 @@
       <c r="K18" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L18" s="8" t="b">
+      <c r="L18" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1057,7 +1074,8 @@
       <c r="K19" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L19" s="8" t="b">
+      <c r="L19" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1095,7 +1113,8 @@
       <c r="K20" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L20" s="8" t="b">
+      <c r="L20" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1133,7 +1152,8 @@
       <c r="K21" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L21" s="8" t="b">
+      <c r="L21" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1171,7 +1191,8 @@
       <c r="K22" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L22" s="8" t="b">
+      <c r="L22" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1209,7 +1230,8 @@
       <c r="K23" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L23" s="8" t="b">
+      <c r="L23" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1247,7 +1269,8 @@
       <c r="K24" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L24" s="8" t="b">
+      <c r="L24" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1285,7 +1308,8 @@
       <c r="K25" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L25" s="8" t="b">
+      <c r="L25" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1323,7 +1347,8 @@
       <c r="K26" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L26" s="8" t="b">
+      <c r="L26" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1361,7 +1386,8 @@
       <c r="K27" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L27" s="8" t="b">
+      <c r="L27" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1399,7 +1425,8 @@
       <c r="K28" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L28" s="8" t="b">
+      <c r="L28" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1437,7 +1464,8 @@
       <c r="K29" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L29" s="8" t="b">
+      <c r="L29" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1475,7 +1503,8 @@
       <c r="K30" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L30" s="8" t="b">
+      <c r="L30" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1513,7 +1542,8 @@
       <c r="K31" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L31" s="8" t="b">
+      <c r="L31" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1551,7 +1581,8 @@
       <c r="K32" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L32" s="8" t="b">
+      <c r="L32" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1589,7 +1620,8 @@
       <c r="K33" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L33" s="8" t="b">
+      <c r="L33" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
